--- a/Output.xlsx
+++ b/Output.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-07-12T13:17:37Z</t>
+          <t>2020-07-12</t>
         </is>
       </c>
     </row>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +46,10 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
@@ -86,12 +90,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,48 +471,48 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Report_Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Journal Requests (Excluding OA_Gold)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Report_ID</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>TR_J1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Reporting_Period</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Begin_Date=2020-01-01; End_Date=2020-06-30</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>2020-01-01 to 2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Created</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>2020-07-12</t>
         </is>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -548,37 +548,37 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Jan-2020</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Feb-2020</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Mar-2020</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Apr-2020</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>May-2020</t>
+          <t>May</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>Jun-2020</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Reporting_Period_Total</t>
+          <t>YTD Total</t>
         </is>
       </c>
     </row>
